--- a/Estimation UC Saisie des horaires.xlsx
+++ b/Estimation UC Saisie des horaires.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\Documents\DUT\DUT1\Semestre 2\M2204\Projet PILAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC5B0C-4E99-49BB-9193-2A007920B541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB4069-9B8A-4ED7-9040-1D98BAC33983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="EF">Feuil1!$C$38</definedName>
+    <definedName name="EF">Feuil1!$C$41</definedName>
     <definedName name="TCF">Feuil1!$C$22</definedName>
-    <definedName name="UUCP">Feuil1!$E$62</definedName>
+    <definedName name="UUCP">Feuil1!$E$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -352,9 +352,6 @@
     <t>ETP</t>
   </si>
   <si>
-    <t>INSCRIPTION</t>
-  </si>
-  <si>
     <t>Facteur de Productivité</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>language facile HTML</t>
+  </si>
+  <si>
+    <t>Estimation des horaires</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +868,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,38 +1236,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M76"/>
+  <dimension ref="A2:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="3" width="56.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1302,14 +1306,14 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8">
+        <v>103</v>
+      </c>
+      <c r="H8">
         <f>IF(E8&gt;3,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1327,10 +1331,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H19" si="1">IF(E9&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1348,10 +1356,14 @@
         <v>2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1369,10 +1381,14 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1390,10 +1406,14 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1411,10 +1431,14 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1432,10 +1456,14 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1453,10 +1481,14 @@
         <v>4</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1474,10 +1506,14 @@
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="25" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1495,10 +1531,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1516,10 +1556,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="25" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1537,14 +1581,18 @@
         <v>0</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4">
@@ -1558,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1571,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1583,588 +1631,515 @@
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="27" x14ac:dyDescent="0.3">
-      <c r="B27" s="31" t="s">
+    <row r="30" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E30" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D31" s="4">
         <v>1.5</v>
       </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <f>D28*E28</f>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <f>D31*E31</f>
         <v>1.5</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31">
+        <f>IF(F31&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ref="F32:F38" si="2">D32*E32</f>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32">
+        <f>IF(F32&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J28">
-        <f>IF(F28&gt;3,1,0)</f>
+      <c r="H33">
+        <f>IF(F33&gt;3,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="4">
         <v>0.5</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" ref="F29:F35" si="1">D29*E29</f>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ref="J29:J35" si="2">IF(F29&gt;3,1,0)</f>
+      <c r="G34" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34">
+        <f>IF(F34&gt;3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L29">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="52">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35">
+        <f>IF(F35&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36">
+        <f>IF(F36&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37">
+        <f>IF(F37&gt;3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
         <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38">
+        <f>IF(F38&gt;3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L30">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <f>SUM(F31:F38)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H31:H38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="13">
+        <f>(-0.03*F39)+1.4</f>
+        <v>1.2349999999999999</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="2:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="36">
+        <v>1</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="41">
+        <v>2</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="42"/>
+      <c r="C51" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="43"/>
+      <c r="C52" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="2">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="52">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="G34" s="19" t="s">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <f>SUM(F28:F35)</f>
-        <v>5.5</v>
-      </c>
-      <c r="J36">
-        <f>SUM(J28:J35)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B38" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="13">
-        <f>(-0.03*F36)+1.4</f>
-        <v>1.2349999999999999</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="41" spans="2:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="23" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-    </row>
-    <row r="46" spans="2:10" ht="23" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="36">
-        <v>1</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="41">
-        <v>2</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="36">
+      <c r="C57" s="4">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="43"/>
-      <c r="C49" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4">
-        <f>C54+D54</f>
+      <c r="E57" s="4">
+        <f>C57+D57</f>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <f t="shared" ref="E55:E61" si="3">C55+D55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="B62" s="44" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="5">
-        <f>SUM(E54:E61)</f>
+      <c r="C58" s="45"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="5">
+        <f>SUM(E57:E57)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B65" s="25" t="s">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="2:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="29" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C63" s="30">
         <f>UUCP*TCF*EF</f>
         <v>12.843999999999999</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="4" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="32" t="s">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C67" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D67" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="33">
-        <f>C67*C75</f>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="33">
+        <f>C63*C71</f>
         <v>256.88</v>
       </c>
-      <c r="C72" s="33">
-        <f>B72/6</f>
+      <c r="C68" s="33">
+        <f>B68/6</f>
         <v>42.813333333333333</v>
       </c>
-      <c r="D72" s="33">
-        <f>C72/12</f>
+      <c r="D68" s="33">
+        <f>C68/12</f>
         <v>3.5677777777777777</v>
       </c>
-      <c r="E72" s="4">
-        <f>C72/150</f>
+      <c r="E68" s="4">
+        <f>C68/150</f>
         <v>0.28542222222222224</v>
       </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>102</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2174,9 +2149,9 @@
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
@@ -2190,7 +2165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -2205,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2220,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
@@ -2235,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
@@ -2250,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
@@ -2265,7 +2240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>93</v>
       </c>
@@ -2280,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>94</v>
       </c>
@@ -2295,7 +2270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
@@ -2310,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
@@ -2325,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>97</v>
       </c>
@@ -2340,7 +2315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
@@ -2355,7 +2330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2364,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2373,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>77</v>
       </c>
@@ -2384,12 +2359,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2496,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2507,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -2550,7 +2525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -2568,7 +2543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -2586,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -2622,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2640,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2650,21 +2625,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>32</v>
       </c>
@@ -2687,7 +2662,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
